--- a/Spreadsheet Applications/Use Financial and Lookup Functions, Define Names, Validate Data, and Audit Worksheets/Loan and Costs.xlsx
+++ b/Spreadsheet Applications/Use Financial and Lookup Functions, Define Names, Validate Data, and Audit Worksheets/Loan and Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Use Financial and Lookup Functions^J Define Names^J Validate Data^J and Audit Worksheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_43F202B373035B548C4CA055E62EC7C8930FAB1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{436DEAB4-0223-4045-8694-75EC62CA9B8B}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_43F202B373035B548C4CA055E62EC7C8930FAB1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{368D1A1A-9071-4FB0-99D4-335FE0DF20C3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Houston New Store Loan" sheetId="3" r:id="rId1"/>
@@ -153,7 +153,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -216,6 +216,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -309,10 +310,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5"/>
@@ -326,7 +326,10 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,10 +339,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="9" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
@@ -634,49 +633,49 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="30" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="13">
         <v>300000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -686,18 +685,18 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -709,252 +708,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14"/>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-    </row>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="A9" s="19"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="A10" s="19"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="A11" s="19"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="A12" s="19"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="A13" s="19"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="19"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="A15" s="19"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="19"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="A17" s="19"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="A18" s="19"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="A19" s="19"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="A20" s="19"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="19"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="19"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="19"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="19"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -965,343 +940,343 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E18"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
     <col min="2" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="3"/>
+    <col min="6" max="9" width="9.140625" style="2"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="14">
         <v>36470</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="14">
         <v>28329</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="14">
         <v>22500</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="14">
         <v>20596</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="15">
         <v>27319</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="15">
         <v>20510</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <v>32194</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="15">
         <v>17531</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="15">
         <v>14359</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="15">
         <v>16788</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <v>18757</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="15">
         <v>21841</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="15">
         <v>16442</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="15">
         <v>20831</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="15">
         <v>14540</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="15">
         <v>11542</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="15">
         <v>17127</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="15">
         <v>14542.000000000002</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="15">
         <v>22657</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="15">
         <v>16471</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="15">
         <v>10033</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="15">
         <v>11221</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="15">
         <v>14578</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="15">
         <v>13665</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="15">
         <v>2459</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="15">
         <v>5108</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="15">
         <v>3209</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="15">
         <v>4197</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="15">
         <v>1309</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="15">
         <v>6025</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="15">
         <v>5811</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="15">
         <v>9418</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="15">
         <v>2464</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="15">
         <v>2805</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="15">
         <v>3891</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="15">
         <v>5475</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="15">
         <v>1720</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="15">
         <v>1741</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="15">
         <v>2379</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="15">
         <v>3688</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="15">
         <v>1807</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="15">
         <v>1357</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="15">
         <v>1591</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="15">
         <v>1537</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="15">
         <v>1293</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="15">
         <v>1317</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="15">
         <v>2360</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="15">
         <v>2659</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="16">
         <f>SUM(B6:B17)</f>
         <v>132802</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="16">
         <f>SUM(C6:C17)</f>
         <v>130574</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="16">
         <f>SUM(D6:D17)</f>
         <v>144467</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="16">
         <f>SUM(E6:E17)</f>
         <v>128620</v>
       </c>
@@ -1316,18 +1291,18 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,62 +1312,56 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="18"/>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
@@ -1402,5 +1371,8 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>